--- a/swe-iot/docs/it003/SprintPlan.xlsx
+++ b/swe-iot/docs/it003/SprintPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Wer?</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Georg,Michael</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -212,14 +215,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -586,29 +589,29 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="64.150000000000006" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="69" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="69" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -637,7 +640,7 @@
       <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="7"/>
@@ -721,7 +724,7 @@
       <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="9">
         <v>16</v>
       </c>
@@ -733,18 +736,20 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>

--- a/swe-iot/docs/it003/SprintPlan.xlsx
+++ b/swe-iot/docs/it003/SprintPlan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Wer?</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>CountAndShowLed erweitern</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t xml:space="preserve">kleine Applikation die Zähler ausliest und zurücksetzt </t>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>0</v>
@@ -650,13 +647,13 @@
     <row r="6" spans="1:12" ht="31.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -673,7 +670,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -696,10 +693,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -736,19 +733,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="6"/>
